--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_16_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_16_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64076.9098205513</v>
+        <v>12642487.08440227</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64076.9098205513</v>
+        <v>12642487.08440227</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48486.15673689594</v>
+        <v>6019595.140910372</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48486.15673689594</v>
+        <v>6019595.140910372</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609833610.332288</v>
+        <v>61280923.5743608</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13281.09338936046</v>
+        <v>1421906.8890099</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25678.51086224612</v>
+        <v>2708794.791548018</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38074.8176409308</v>
+        <v>3995506.041712957</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51850.39855337507</v>
+        <v>5078595.869575899</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64979.34219353494</v>
+        <v>6255145.988052325</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78108.2858336948</v>
+        <v>7431696.106528752</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91235.54903731837</v>
+        <v>8785910.496129364</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104175.919311649</v>
+        <v>10102933.19280068</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118258.4271093803</v>
+        <v>11083627.41049838</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>130479.8395247661</v>
+        <v>12395109.06135721</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>142701.8854755054</v>
+        <v>13706716.7857514</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>155054.9445621284</v>
+        <v>15000157.3265481</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>167408.0036487513</v>
+        <v>16293597.86734481</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182350.8599678615</v>
+        <v>17225084.41326484</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201819.1763382494</v>
+        <v>17385767.10317346</v>
       </c>
     </row>
   </sheetData>
